--- a/src/Tests/WB.Tests.Unit.Designer/BoundedContexts/Designer/TranslationServiceTests/testTranslationsWithDuplicates.xlsx
+++ b/src/Tests/WB.Tests.Unit.Designer/BoundedContexts/Designer/TranslationServiceTests/testTranslationsWithDuplicates.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SurveySolutions\src\Tests\WB.Tests.Unit.Designer\BoundedContexts\Designer\TranslationServiceTests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\surveysolutions\src\Tests\WB.Tests.Unit.Designer\BoundedContexts\Designer\TranslationServiceTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
   <si>
     <t>Type</t>
   </si>
@@ -69,12 +69,18 @@
   </si>
   <si>
     <t>OptionTitle</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>c1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,220 +426,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
       <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
       <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
       <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
       <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
       <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
       <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
       <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
       <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
       <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
       <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
         <v>9</v>
       </c>
     </row>
